--- a/data/derived/res_load/p_mw.xlsx
+++ b/data/derived/res_load/p_mw.xlsx
@@ -11,6 +11,107 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,2907 +467,2532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="B1" s="1">
+    <row r="1" spans="1:33">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:33">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.11888</v>
+        <v>0.064</v>
       </c>
       <c r="C2">
-        <v>0.11888</v>
+        <v>0.0576</v>
       </c>
       <c r="D2">
-        <v>0.23776</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="E2">
-        <v>0.47552</v>
+        <v>0.0384</v>
       </c>
       <c r="F2">
-        <v>0.7132799999999999</v>
+        <v>0.0384</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.128</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>0.128</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>0.0384</v>
       </c>
       <c r="J2">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0.0288</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.0384</v>
       </c>
       <c r="M2">
-        <v>0.2</v>
+        <v>0.0384</v>
       </c>
       <c r="N2">
-        <v>0.06</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="O2">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
       <c r="P2">
-        <v>0.045</v>
+        <v>0.0384</v>
       </c>
       <c r="Q2">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
       <c r="R2">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="S2">
-        <v>0.12</v>
+        <v>0.0576</v>
       </c>
       <c r="T2">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="U2">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="V2">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="W2">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="X2">
-        <v>0.09</v>
+        <v>0.2688</v>
       </c>
       <c r="Y2">
-        <v>0.09</v>
+        <v>0.2688</v>
       </c>
       <c r="Z2">
-        <v>0.09</v>
+        <v>0.0384</v>
       </c>
       <c r="AA2">
-        <v>0.09</v>
+        <v>0.0384</v>
       </c>
       <c r="AB2">
-        <v>0.09</v>
+        <v>0.0384</v>
       </c>
       <c r="AC2">
-        <v>0.42</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.42</v>
+        <v>0.128</v>
       </c>
       <c r="AE2">
-        <v>0.06</v>
+        <v>0.096</v>
       </c>
       <c r="AF2">
-        <v>0.06</v>
+        <v>0.1344</v>
       </c>
       <c r="AG2">
-        <v>0.06</v>
-      </c>
-      <c r="AH2">
-        <v>0.12</v>
-      </c>
-      <c r="AI2">
-        <v>0.2</v>
-      </c>
-      <c r="AJ2">
-        <v>0.15</v>
-      </c>
-      <c r="AK2">
-        <v>0.21</v>
-      </c>
-      <c r="AL2">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.11145</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
-        <v>0.11145</v>
+        <v>0.054</v>
       </c>
       <c r="D3">
-        <v>0.2229</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E3">
-        <v>0.4458</v>
+        <v>0.036</v>
       </c>
       <c r="F3">
-        <v>0.6687000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H3">
+        <v>0.12</v>
+      </c>
+      <c r="I3">
+        <v>0.036</v>
+      </c>
+      <c r="J3">
+        <v>0.036</v>
+      </c>
+      <c r="K3">
+        <v>0.027</v>
+      </c>
+      <c r="L3">
+        <v>0.036</v>
+      </c>
+      <c r="M3">
+        <v>0.036</v>
+      </c>
+      <c r="N3">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.036</v>
+      </c>
+      <c r="P3">
+        <v>0.036</v>
+      </c>
+      <c r="Q3">
+        <v>0.036</v>
+      </c>
+      <c r="R3">
+        <v>0.054</v>
+      </c>
+      <c r="S3">
+        <v>0.054</v>
+      </c>
+      <c r="T3">
+        <v>0.054</v>
+      </c>
+      <c r="U3">
+        <v>0.054</v>
+      </c>
+      <c r="V3">
+        <v>0.054</v>
+      </c>
+      <c r="W3">
+        <v>0.054</v>
+      </c>
+      <c r="X3">
+        <v>0.252</v>
+      </c>
+      <c r="Y3">
+        <v>0.252</v>
+      </c>
+      <c r="Z3">
+        <v>0.036</v>
+      </c>
+      <c r="AA3">
+        <v>0.036</v>
+      </c>
+      <c r="AB3">
+        <v>0.036</v>
+      </c>
+      <c r="AC3">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.12</v>
+      </c>
+      <c r="AE3">
         <v>0.09</v>
       </c>
-      <c r="I3">
-        <v>0.12</v>
-      </c>
-      <c r="J3">
-        <v>0.06</v>
-      </c>
-      <c r="K3">
-        <v>0.06</v>
-      </c>
-      <c r="L3">
-        <v>0.2</v>
-      </c>
-      <c r="M3">
-        <v>0.2</v>
-      </c>
-      <c r="N3">
-        <v>0.06</v>
-      </c>
-      <c r="O3">
-        <v>0.06</v>
-      </c>
-      <c r="P3">
-        <v>0.045</v>
-      </c>
-      <c r="Q3">
-        <v>0.06</v>
-      </c>
-      <c r="R3">
-        <v>0.06</v>
-      </c>
-      <c r="S3">
-        <v>0.12</v>
-      </c>
-      <c r="T3">
-        <v>0.06</v>
-      </c>
-      <c r="U3">
-        <v>0.06</v>
-      </c>
-      <c r="V3">
-        <v>0.06</v>
-      </c>
-      <c r="W3">
-        <v>0.09</v>
-      </c>
-      <c r="X3">
-        <v>0.09</v>
-      </c>
-      <c r="Y3">
-        <v>0.09</v>
-      </c>
-      <c r="Z3">
-        <v>0.09</v>
-      </c>
-      <c r="AA3">
-        <v>0.09</v>
-      </c>
-      <c r="AB3">
-        <v>0.09</v>
-      </c>
-      <c r="AC3">
-        <v>0.42</v>
-      </c>
-      <c r="AD3">
-        <v>0.42</v>
-      </c>
-      <c r="AE3">
-        <v>0.06</v>
-      </c>
       <c r="AF3">
-        <v>0.06</v>
+        <v>0.126</v>
       </c>
       <c r="AG3">
-        <v>0.06</v>
-      </c>
-      <c r="AH3">
-        <v>0.12</v>
-      </c>
-      <c r="AI3">
-        <v>0.2</v>
-      </c>
-      <c r="AJ3">
-        <v>0.15</v>
-      </c>
-      <c r="AK3">
-        <v>0.21</v>
-      </c>
-      <c r="AL3">
-        <v>0.06</v>
+        <v>0.036</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:33">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.107735</v>
+        <v>0.058</v>
       </c>
       <c r="C4">
-        <v>0.107735</v>
+        <v>0.0522</v>
       </c>
       <c r="D4">
-        <v>0.21547</v>
+        <v>0.0696</v>
       </c>
       <c r="E4">
-        <v>0.4309399999999999</v>
+        <v>0.0348</v>
       </c>
       <c r="F4">
-        <v>0.6464099999999999</v>
+        <v>0.0348</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0.116</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.116</v>
       </c>
       <c r="I4">
-        <v>0.12</v>
+        <v>0.0348</v>
       </c>
       <c r="J4">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0.0261</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>0.0348</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0.0348</v>
       </c>
       <c r="N4">
-        <v>0.06</v>
+        <v>0.0696</v>
       </c>
       <c r="O4">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
       <c r="P4">
-        <v>0.045</v>
+        <v>0.0348</v>
       </c>
       <c r="Q4">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
       <c r="R4">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="S4">
-        <v>0.12</v>
+        <v>0.0522</v>
       </c>
       <c r="T4">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="U4">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="V4">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="W4">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="X4">
-        <v>0.09</v>
+        <v>0.2436</v>
       </c>
       <c r="Y4">
-        <v>0.09</v>
+        <v>0.2436</v>
       </c>
       <c r="Z4">
-        <v>0.09</v>
+        <v>0.0348</v>
       </c>
       <c r="AA4">
-        <v>0.09</v>
+        <v>0.0348</v>
       </c>
       <c r="AB4">
-        <v>0.09</v>
+        <v>0.0348</v>
       </c>
       <c r="AC4">
-        <v>0.42</v>
+        <v>0.0696</v>
       </c>
       <c r="AD4">
-        <v>0.42</v>
+        <v>0.116</v>
       </c>
       <c r="AE4">
-        <v>0.06</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.06</v>
+        <v>0.1218</v>
       </c>
       <c r="AG4">
-        <v>0.06</v>
-      </c>
-      <c r="AH4">
-        <v>0.12</v>
-      </c>
-      <c r="AI4">
-        <v>0.2</v>
-      </c>
-      <c r="AJ4">
-        <v>0.15</v>
-      </c>
-      <c r="AK4">
-        <v>0.21</v>
-      </c>
-      <c r="AL4">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:33">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.10402</v>
+        <v>0.056</v>
       </c>
       <c r="C5">
-        <v>0.10402</v>
+        <v>0.0504</v>
       </c>
       <c r="D5">
-        <v>0.20804</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="E5">
-        <v>0.4160799999999999</v>
+        <v>0.0336</v>
       </c>
       <c r="F5">
-        <v>0.62412</v>
+        <v>0.0336</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
       <c r="H5">
-        <v>0.09</v>
+        <v>0.112</v>
       </c>
       <c r="I5">
-        <v>0.12</v>
+        <v>0.0336</v>
       </c>
       <c r="J5">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
       <c r="K5">
-        <v>0.06</v>
+        <v>0.0252</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>0.0336</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0.0336</v>
       </c>
       <c r="N5">
-        <v>0.06</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="O5">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
       <c r="P5">
-        <v>0.045</v>
+        <v>0.0336</v>
       </c>
       <c r="Q5">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
       <c r="R5">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="S5">
-        <v>0.12</v>
+        <v>0.0504</v>
       </c>
       <c r="T5">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="U5">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="V5">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="W5">
-        <v>0.09</v>
+        <v>0.0504</v>
       </c>
       <c r="X5">
-        <v>0.09</v>
+        <v>0.2352</v>
       </c>
       <c r="Y5">
-        <v>0.09</v>
+        <v>0.2352</v>
       </c>
       <c r="Z5">
-        <v>0.09</v>
+        <v>0.0336</v>
       </c>
       <c r="AA5">
-        <v>0.09</v>
+        <v>0.0336</v>
       </c>
       <c r="AB5">
-        <v>0.09</v>
+        <v>0.0336</v>
       </c>
       <c r="AC5">
-        <v>0.42</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="AD5">
-        <v>0.42</v>
+        <v>0.112</v>
       </c>
       <c r="AE5">
-        <v>0.06</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.06</v>
+        <v>0.1176</v>
       </c>
       <c r="AG5">
-        <v>0.06</v>
-      </c>
-      <c r="AH5">
-        <v>0.12</v>
-      </c>
-      <c r="AI5">
-        <v>0.2</v>
-      </c>
-      <c r="AJ5">
-        <v>0.15</v>
-      </c>
-      <c r="AK5">
-        <v>0.21</v>
-      </c>
-      <c r="AL5">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:33">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.10402</v>
+        <v>0.056</v>
       </c>
       <c r="C6">
-        <v>0.10402</v>
+        <v>0.0504</v>
       </c>
       <c r="D6">
-        <v>0.20804</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="E6">
-        <v>0.4160799999999999</v>
+        <v>0.0336</v>
       </c>
       <c r="F6">
-        <v>0.62412</v>
+        <v>0.0336</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
       <c r="H6">
-        <v>0.09</v>
+        <v>0.112</v>
       </c>
       <c r="I6">
-        <v>0.12</v>
+        <v>0.0336</v>
       </c>
       <c r="J6">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
       <c r="K6">
-        <v>0.06</v>
+        <v>0.0252</v>
       </c>
       <c r="L6">
-        <v>0.2</v>
+        <v>0.0336</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0.0336</v>
       </c>
       <c r="N6">
-        <v>0.06</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="O6">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
       <c r="P6">
-        <v>0.045</v>
+        <v>0.0336</v>
       </c>
       <c r="Q6">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
       <c r="R6">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="S6">
-        <v>0.12</v>
+        <v>0.0504</v>
       </c>
       <c r="T6">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="U6">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="V6">
-        <v>0.06</v>
+        <v>0.0504</v>
       </c>
       <c r="W6">
-        <v>0.09</v>
+        <v>0.0504</v>
       </c>
       <c r="X6">
-        <v>0.09</v>
+        <v>0.2352</v>
       </c>
       <c r="Y6">
-        <v>0.09</v>
+        <v>0.2352</v>
       </c>
       <c r="Z6">
-        <v>0.09</v>
+        <v>0.0336</v>
       </c>
       <c r="AA6">
-        <v>0.09</v>
+        <v>0.0336</v>
       </c>
       <c r="AB6">
-        <v>0.09</v>
+        <v>0.0336</v>
       </c>
       <c r="AC6">
-        <v>0.42</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.42</v>
+        <v>0.112</v>
       </c>
       <c r="AE6">
-        <v>0.06</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.06</v>
+        <v>0.1176</v>
       </c>
       <c r="AG6">
-        <v>0.06</v>
-      </c>
-      <c r="AH6">
-        <v>0.12</v>
-      </c>
-      <c r="AI6">
-        <v>0.2</v>
-      </c>
-      <c r="AJ6">
-        <v>0.15</v>
-      </c>
-      <c r="AK6">
-        <v>0.21</v>
-      </c>
-      <c r="AL6">
-        <v>0.06</v>
+        <v>0.0336</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:33">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.107735</v>
+        <v>0.058</v>
       </c>
       <c r="C7">
-        <v>0.107735</v>
+        <v>0.0522</v>
       </c>
       <c r="D7">
-        <v>0.21547</v>
+        <v>0.0696</v>
       </c>
       <c r="E7">
-        <v>0.4309399999999999</v>
+        <v>0.0348</v>
       </c>
       <c r="F7">
-        <v>0.6464099999999999</v>
+        <v>0.0348</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.116</v>
       </c>
       <c r="H7">
-        <v>0.09</v>
+        <v>0.116</v>
       </c>
       <c r="I7">
-        <v>0.12</v>
+        <v>0.0348</v>
       </c>
       <c r="J7">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
       <c r="K7">
-        <v>0.06</v>
+        <v>0.0261</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>0.0348</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>0.0348</v>
       </c>
       <c r="N7">
-        <v>0.06</v>
+        <v>0.0696</v>
       </c>
       <c r="O7">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
       <c r="P7">
-        <v>0.045</v>
+        <v>0.0348</v>
       </c>
       <c r="Q7">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="S7">
-        <v>0.12</v>
+        <v>0.0522</v>
       </c>
       <c r="T7">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="U7">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="V7">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="W7">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="X7">
-        <v>0.09</v>
+        <v>0.2436</v>
       </c>
       <c r="Y7">
-        <v>0.09</v>
+        <v>0.2436</v>
       </c>
       <c r="Z7">
-        <v>0.09</v>
+        <v>0.0348</v>
       </c>
       <c r="AA7">
-        <v>0.09</v>
+        <v>0.0348</v>
       </c>
       <c r="AB7">
-        <v>0.09</v>
+        <v>0.0348</v>
       </c>
       <c r="AC7">
-        <v>0.42</v>
+        <v>0.0696</v>
       </c>
       <c r="AD7">
-        <v>0.42</v>
+        <v>0.116</v>
       </c>
       <c r="AE7">
-        <v>0.06</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.06</v>
+        <v>0.1218</v>
       </c>
       <c r="AG7">
-        <v>0.06</v>
-      </c>
-      <c r="AH7">
-        <v>0.12</v>
-      </c>
-      <c r="AI7">
-        <v>0.2</v>
-      </c>
-      <c r="AJ7">
-        <v>0.15</v>
-      </c>
-      <c r="AK7">
-        <v>0.21</v>
-      </c>
-      <c r="AL7">
-        <v>0.06</v>
+        <v>0.0348</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.11888</v>
+        <v>0.064</v>
       </c>
       <c r="C8">
-        <v>0.11888</v>
+        <v>0.0576</v>
       </c>
       <c r="D8">
-        <v>0.23776</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="E8">
-        <v>0.47552</v>
+        <v>0.0384</v>
       </c>
       <c r="F8">
-        <v>0.7132799999999999</v>
+        <v>0.0384</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.128</v>
       </c>
       <c r="H8">
-        <v>0.09</v>
+        <v>0.128</v>
       </c>
       <c r="I8">
-        <v>0.12</v>
+        <v>0.0384</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
       <c r="K8">
-        <v>0.06</v>
+        <v>0.0288</v>
       </c>
       <c r="L8">
-        <v>0.2</v>
+        <v>0.0384</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0.0384</v>
       </c>
       <c r="N8">
-        <v>0.06</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="O8">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
       <c r="P8">
-        <v>0.045</v>
+        <v>0.0384</v>
       </c>
       <c r="Q8">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
       <c r="R8">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="S8">
-        <v>0.12</v>
+        <v>0.0576</v>
       </c>
       <c r="T8">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="U8">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="V8">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="W8">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="X8">
-        <v>0.09</v>
+        <v>0.2688</v>
       </c>
       <c r="Y8">
-        <v>0.09</v>
+        <v>0.2688</v>
       </c>
       <c r="Z8">
-        <v>0.09</v>
+        <v>0.0384</v>
       </c>
       <c r="AA8">
-        <v>0.09</v>
+        <v>0.0384</v>
       </c>
       <c r="AB8">
-        <v>0.09</v>
+        <v>0.0384</v>
       </c>
       <c r="AC8">
-        <v>0.42</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.42</v>
+        <v>0.128</v>
       </c>
       <c r="AE8">
-        <v>0.06</v>
+        <v>0.096</v>
       </c>
       <c r="AF8">
-        <v>0.06</v>
+        <v>0.1344</v>
       </c>
       <c r="AG8">
-        <v>0.06</v>
-      </c>
-      <c r="AH8">
-        <v>0.12</v>
-      </c>
-      <c r="AI8">
-        <v>0.2</v>
-      </c>
-      <c r="AJ8">
-        <v>0.15</v>
-      </c>
-      <c r="AK8">
-        <v>0.21</v>
-      </c>
-      <c r="AL8">
-        <v>0.06</v>
+        <v>0.0384</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:33">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.14117</v>
+        <v>0.076</v>
       </c>
       <c r="C9">
-        <v>0.14117</v>
+        <v>0.0684</v>
       </c>
       <c r="D9">
-        <v>0.28234</v>
+        <v>0.0912</v>
       </c>
       <c r="E9">
-        <v>0.56468</v>
+        <v>0.0456</v>
       </c>
       <c r="F9">
-        <v>0.84702</v>
+        <v>0.0456</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.152</v>
       </c>
       <c r="H9">
-        <v>0.09</v>
+        <v>0.152</v>
       </c>
       <c r="I9">
-        <v>0.12</v>
+        <v>0.0456</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0.0456</v>
       </c>
       <c r="K9">
-        <v>0.06</v>
+        <v>0.0342</v>
       </c>
       <c r="L9">
-        <v>0.2</v>
+        <v>0.0456</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.0456</v>
       </c>
       <c r="N9">
-        <v>0.06</v>
+        <v>0.0912</v>
       </c>
       <c r="O9">
-        <v>0.06</v>
+        <v>0.0456</v>
       </c>
       <c r="P9">
-        <v>0.045</v>
+        <v>0.0456</v>
       </c>
       <c r="Q9">
-        <v>0.06</v>
+        <v>0.0456</v>
       </c>
       <c r="R9">
-        <v>0.06</v>
+        <v>0.0684</v>
       </c>
       <c r="S9">
-        <v>0.12</v>
+        <v>0.0684</v>
       </c>
       <c r="T9">
-        <v>0.06</v>
+        <v>0.0684</v>
       </c>
       <c r="U9">
-        <v>0.06</v>
+        <v>0.0684</v>
       </c>
       <c r="V9">
-        <v>0.06</v>
+        <v>0.0684</v>
       </c>
       <c r="W9">
-        <v>0.09</v>
+        <v>0.0684</v>
       </c>
       <c r="X9">
-        <v>0.09</v>
+        <v>0.3192</v>
       </c>
       <c r="Y9">
-        <v>0.09</v>
+        <v>0.3192</v>
       </c>
       <c r="Z9">
-        <v>0.09</v>
+        <v>0.0456</v>
       </c>
       <c r="AA9">
-        <v>0.09</v>
+        <v>0.0456</v>
       </c>
       <c r="AB9">
-        <v>0.09</v>
+        <v>0.0456</v>
       </c>
       <c r="AC9">
-        <v>0.42</v>
+        <v>0.0912</v>
       </c>
       <c r="AD9">
-        <v>0.42</v>
+        <v>0.152</v>
       </c>
       <c r="AE9">
-        <v>0.06</v>
+        <v>0.114</v>
       </c>
       <c r="AF9">
-        <v>0.06</v>
+        <v>0.1596</v>
       </c>
       <c r="AG9">
-        <v>0.06</v>
-      </c>
-      <c r="AH9">
-        <v>0.12</v>
-      </c>
-      <c r="AI9">
-        <v>0.2</v>
-      </c>
-      <c r="AJ9">
-        <v>0.15</v>
-      </c>
-      <c r="AK9">
-        <v>0.21</v>
-      </c>
-      <c r="AL9">
-        <v>0.06</v>
+        <v>0.0456</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1616025</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C10">
-        <v>0.1616025</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D10">
-        <v>0.323205</v>
+        <v>0.1044</v>
       </c>
       <c r="E10">
-        <v>0.64641</v>
+        <v>0.0522</v>
       </c>
       <c r="F10">
-        <v>0.969615</v>
+        <v>0.0522</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0.174</v>
       </c>
       <c r="H10">
-        <v>0.09</v>
+        <v>0.174</v>
       </c>
       <c r="I10">
-        <v>0.12</v>
+        <v>0.0522</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="K10">
-        <v>0.06</v>
+        <v>0.03915</v>
       </c>
       <c r="L10">
-        <v>0.2</v>
+        <v>0.0522</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.0522</v>
       </c>
       <c r="N10">
-        <v>0.06</v>
+        <v>0.1044</v>
       </c>
       <c r="O10">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="P10">
-        <v>0.045</v>
+        <v>0.0522</v>
       </c>
       <c r="Q10">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="R10">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="S10">
-        <v>0.12</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="T10">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="U10">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="V10">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="W10">
-        <v>0.09</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="X10">
-        <v>0.09</v>
+        <v>0.3654</v>
       </c>
       <c r="Y10">
-        <v>0.09</v>
+        <v>0.3654</v>
       </c>
       <c r="Z10">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="AA10">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="AB10">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="AC10">
-        <v>0.42</v>
+        <v>0.1044</v>
       </c>
       <c r="AD10">
-        <v>0.42</v>
+        <v>0.174</v>
       </c>
       <c r="AE10">
-        <v>0.06</v>
+        <v>0.1305</v>
       </c>
       <c r="AF10">
-        <v>0.06</v>
+        <v>0.1827</v>
       </c>
       <c r="AG10">
-        <v>0.06</v>
-      </c>
-      <c r="AH10">
-        <v>0.12</v>
-      </c>
-      <c r="AI10">
-        <v>0.2</v>
-      </c>
-      <c r="AJ10">
-        <v>0.15</v>
-      </c>
-      <c r="AK10">
-        <v>0.21</v>
-      </c>
-      <c r="AL10">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:33">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1764625</v>
+        <v>0.095</v>
       </c>
       <c r="C11">
-        <v>0.1764625</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="D11">
-        <v>0.352925</v>
+        <v>0.114</v>
       </c>
       <c r="E11">
-        <v>0.70585</v>
+        <v>0.057</v>
       </c>
       <c r="F11">
-        <v>1.058775</v>
+        <v>0.057</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="H11">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I11">
-        <v>0.12</v>
+        <v>0.057</v>
       </c>
       <c r="J11">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="K11">
-        <v>0.06</v>
+        <v>0.04275</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0.057</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>0.057</v>
       </c>
       <c r="N11">
-        <v>0.06</v>
+        <v>0.114</v>
       </c>
       <c r="O11">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="P11">
-        <v>0.045</v>
+        <v>0.057</v>
       </c>
       <c r="Q11">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="R11">
-        <v>0.06</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="S11">
-        <v>0.12</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="T11">
-        <v>0.06</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="U11">
-        <v>0.06</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="V11">
-        <v>0.06</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="W11">
-        <v>0.09</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="X11">
-        <v>0.09</v>
+        <v>0.399</v>
       </c>
       <c r="Y11">
-        <v>0.09</v>
+        <v>0.399</v>
       </c>
       <c r="Z11">
-        <v>0.09</v>
+        <v>0.057</v>
       </c>
       <c r="AA11">
-        <v>0.09</v>
+        <v>0.057</v>
       </c>
       <c r="AB11">
-        <v>0.09</v>
+        <v>0.057</v>
       </c>
       <c r="AC11">
-        <v>0.42</v>
+        <v>0.114</v>
       </c>
       <c r="AD11">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
       <c r="AE11">
-        <v>0.06</v>
+        <v>0.1425</v>
       </c>
       <c r="AF11">
-        <v>0.06</v>
+        <v>0.1995</v>
       </c>
       <c r="AG11">
-        <v>0.06</v>
-      </c>
-      <c r="AH11">
-        <v>0.12</v>
-      </c>
-      <c r="AI11">
-        <v>0.2</v>
-      </c>
-      <c r="AJ11">
-        <v>0.15</v>
-      </c>
-      <c r="AK11">
-        <v>0.21</v>
-      </c>
-      <c r="AL11">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:33">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1838925</v>
+        <v>0.099</v>
       </c>
       <c r="C12">
-        <v>0.1838925</v>
+        <v>0.0891</v>
       </c>
       <c r="D12">
-        <v>0.367785</v>
+        <v>0.1188</v>
       </c>
       <c r="E12">
-        <v>0.7355700000000001</v>
+        <v>0.0594</v>
       </c>
       <c r="F12">
-        <v>1.103355</v>
+        <v>0.0594</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0.198</v>
       </c>
       <c r="H12">
-        <v>0.09</v>
+        <v>0.198</v>
       </c>
       <c r="I12">
-        <v>0.12</v>
+        <v>0.0594</v>
       </c>
       <c r="J12">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
       <c r="K12">
-        <v>0.06</v>
+        <v>0.04455</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>0.0594</v>
       </c>
       <c r="M12">
-        <v>0.2</v>
+        <v>0.0594</v>
       </c>
       <c r="N12">
-        <v>0.06</v>
+        <v>0.1188</v>
       </c>
       <c r="O12">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
       <c r="P12">
-        <v>0.045</v>
+        <v>0.0594</v>
       </c>
       <c r="Q12">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
       <c r="R12">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="S12">
-        <v>0.12</v>
+        <v>0.0891</v>
       </c>
       <c r="T12">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="U12">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="V12">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="W12">
-        <v>0.09</v>
+        <v>0.0891</v>
       </c>
       <c r="X12">
-        <v>0.09</v>
+        <v>0.4158</v>
       </c>
       <c r="Y12">
-        <v>0.09</v>
+        <v>0.4158</v>
       </c>
       <c r="Z12">
-        <v>0.09</v>
+        <v>0.0594</v>
       </c>
       <c r="AA12">
-        <v>0.09</v>
+        <v>0.0594</v>
       </c>
       <c r="AB12">
-        <v>0.09</v>
+        <v>0.0594</v>
       </c>
       <c r="AC12">
-        <v>0.42</v>
+        <v>0.1188</v>
       </c>
       <c r="AD12">
-        <v>0.42</v>
+        <v>0.198</v>
       </c>
       <c r="AE12">
-        <v>0.06</v>
+        <v>0.1485</v>
       </c>
       <c r="AF12">
-        <v>0.06</v>
+        <v>0.2079</v>
       </c>
       <c r="AG12">
-        <v>0.06</v>
-      </c>
-      <c r="AH12">
-        <v>0.12</v>
-      </c>
-      <c r="AI12">
-        <v>0.2</v>
-      </c>
-      <c r="AJ12">
-        <v>0.15</v>
-      </c>
-      <c r="AK12">
-        <v>0.21</v>
-      </c>
-      <c r="AL12">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:33">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.18575</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>0.18575</v>
+        <v>0.09</v>
       </c>
       <c r="D13">
-        <v>0.3715</v>
+        <v>0.12</v>
       </c>
       <c r="E13">
-        <v>0.743</v>
+        <v>0.06</v>
       </c>
       <c r="F13">
-        <v>1.1145</v>
+        <v>0.06</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>0.06</v>
+      </c>
+      <c r="J13">
+        <v>0.06</v>
+      </c>
+      <c r="K13">
+        <v>0.045</v>
+      </c>
+      <c r="L13">
+        <v>0.06</v>
+      </c>
+      <c r="M13">
+        <v>0.06</v>
+      </c>
+      <c r="N13">
+        <v>0.12</v>
+      </c>
+      <c r="O13">
+        <v>0.06</v>
+      </c>
+      <c r="P13">
+        <v>0.06</v>
+      </c>
+      <c r="Q13">
+        <v>0.06</v>
+      </c>
+      <c r="R13">
         <v>0.09</v>
       </c>
-      <c r="I13">
-        <v>0.12</v>
-      </c>
-      <c r="J13">
-        <v>0.06</v>
-      </c>
-      <c r="K13">
-        <v>0.06</v>
-      </c>
-      <c r="L13">
-        <v>0.2</v>
-      </c>
-      <c r="M13">
-        <v>0.2</v>
-      </c>
-      <c r="N13">
-        <v>0.06</v>
-      </c>
-      <c r="O13">
-        <v>0.06</v>
-      </c>
-      <c r="P13">
-        <v>0.045</v>
-      </c>
-      <c r="Q13">
-        <v>0.06</v>
-      </c>
-      <c r="R13">
-        <v>0.06</v>
-      </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="T13">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="U13">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="V13">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="W13">
         <v>0.09</v>
       </c>
       <c r="X13">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="Y13">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="Z13">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AA13">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AB13">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AC13">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="AD13">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AE13">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="AF13">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AG13">
         <v>0.06</v>
       </c>
-      <c r="AH13">
-        <v>0.12</v>
-      </c>
-      <c r="AI13">
-        <v>0.2</v>
-      </c>
-      <c r="AJ13">
-        <v>0.15</v>
-      </c>
-      <c r="AK13">
-        <v>0.21</v>
-      </c>
-      <c r="AL13">
-        <v>0.06</v>
-      </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:33">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1838925</v>
+        <v>0.099</v>
       </c>
       <c r="C14">
-        <v>0.1838925</v>
+        <v>0.0891</v>
       </c>
       <c r="D14">
-        <v>0.367785</v>
+        <v>0.1188</v>
       </c>
       <c r="E14">
-        <v>0.7355700000000001</v>
+        <v>0.0594</v>
       </c>
       <c r="F14">
-        <v>1.103355</v>
+        <v>0.0594</v>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>0.198</v>
       </c>
       <c r="H14">
-        <v>0.09</v>
+        <v>0.198</v>
       </c>
       <c r="I14">
-        <v>0.12</v>
+        <v>0.0594</v>
       </c>
       <c r="J14">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
       <c r="K14">
-        <v>0.06</v>
+        <v>0.04455</v>
       </c>
       <c r="L14">
-        <v>0.2</v>
+        <v>0.0594</v>
       </c>
       <c r="M14">
-        <v>0.2</v>
+        <v>0.0594</v>
       </c>
       <c r="N14">
-        <v>0.06</v>
+        <v>0.1188</v>
       </c>
       <c r="O14">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
       <c r="P14">
-        <v>0.045</v>
+        <v>0.0594</v>
       </c>
       <c r="Q14">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
       <c r="R14">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="S14">
-        <v>0.12</v>
+        <v>0.0891</v>
       </c>
       <c r="T14">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="U14">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="V14">
-        <v>0.06</v>
+        <v>0.0891</v>
       </c>
       <c r="W14">
-        <v>0.09</v>
+        <v>0.0891</v>
       </c>
       <c r="X14">
-        <v>0.09</v>
+        <v>0.4158</v>
       </c>
       <c r="Y14">
-        <v>0.09</v>
+        <v>0.4158</v>
       </c>
       <c r="Z14">
-        <v>0.09</v>
+        <v>0.0594</v>
       </c>
       <c r="AA14">
-        <v>0.09</v>
+        <v>0.0594</v>
       </c>
       <c r="AB14">
-        <v>0.09</v>
+        <v>0.0594</v>
       </c>
       <c r="AC14">
-        <v>0.42</v>
+        <v>0.1188</v>
       </c>
       <c r="AD14">
-        <v>0.42</v>
+        <v>0.198</v>
       </c>
       <c r="AE14">
-        <v>0.06</v>
+        <v>0.1485</v>
       </c>
       <c r="AF14">
-        <v>0.06</v>
+        <v>0.2079</v>
       </c>
       <c r="AG14">
-        <v>0.06</v>
-      </c>
-      <c r="AH14">
-        <v>0.12</v>
-      </c>
-      <c r="AI14">
-        <v>0.2</v>
-      </c>
-      <c r="AJ14">
-        <v>0.15</v>
-      </c>
-      <c r="AK14">
-        <v>0.21</v>
-      </c>
-      <c r="AL14">
-        <v>0.06</v>
+        <v>0.0594</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:33">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.18575</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0.18575</v>
+        <v>0.09</v>
       </c>
       <c r="D15">
-        <v>0.3715</v>
+        <v>0.12</v>
       </c>
       <c r="E15">
-        <v>0.743</v>
+        <v>0.06</v>
       </c>
       <c r="F15">
-        <v>1.1145</v>
+        <v>0.06</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
+      <c r="J15">
+        <v>0.06</v>
+      </c>
+      <c r="K15">
+        <v>0.045</v>
+      </c>
+      <c r="L15">
+        <v>0.06</v>
+      </c>
+      <c r="M15">
+        <v>0.06</v>
+      </c>
+      <c r="N15">
+        <v>0.12</v>
+      </c>
+      <c r="O15">
+        <v>0.06</v>
+      </c>
+      <c r="P15">
+        <v>0.06</v>
+      </c>
+      <c r="Q15">
+        <v>0.06</v>
+      </c>
+      <c r="R15">
         <v>0.09</v>
       </c>
-      <c r="I15">
-        <v>0.12</v>
-      </c>
-      <c r="J15">
-        <v>0.06</v>
-      </c>
-      <c r="K15">
-        <v>0.06</v>
-      </c>
-      <c r="L15">
-        <v>0.2</v>
-      </c>
-      <c r="M15">
-        <v>0.2</v>
-      </c>
-      <c r="N15">
-        <v>0.06</v>
-      </c>
-      <c r="O15">
-        <v>0.06</v>
-      </c>
-      <c r="P15">
-        <v>0.045</v>
-      </c>
-      <c r="Q15">
-        <v>0.06</v>
-      </c>
-      <c r="R15">
-        <v>0.06</v>
-      </c>
       <c r="S15">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="T15">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="U15">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="V15">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="W15">
         <v>0.09</v>
       </c>
       <c r="X15">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="Y15">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="Z15">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AA15">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AB15">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AC15">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="AD15">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AE15">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="AF15">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AG15">
         <v>0.06</v>
       </c>
-      <c r="AH15">
-        <v>0.12</v>
-      </c>
-      <c r="AI15">
-        <v>0.2</v>
-      </c>
-      <c r="AJ15">
-        <v>0.15</v>
-      </c>
-      <c r="AK15">
-        <v>0.21</v>
-      </c>
-      <c r="AL15">
-        <v>0.06</v>
-      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:33">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.18575</v>
+        <v>0.1</v>
       </c>
       <c r="C16">
-        <v>0.18575</v>
+        <v>0.09</v>
       </c>
       <c r="D16">
-        <v>0.3715</v>
+        <v>0.12</v>
       </c>
       <c r="E16">
-        <v>0.743</v>
+        <v>0.06</v>
       </c>
       <c r="F16">
-        <v>1.1145</v>
+        <v>0.06</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>0.06</v>
+      </c>
+      <c r="J16">
+        <v>0.06</v>
+      </c>
+      <c r="K16">
+        <v>0.045</v>
+      </c>
+      <c r="L16">
+        <v>0.06</v>
+      </c>
+      <c r="M16">
+        <v>0.06</v>
+      </c>
+      <c r="N16">
+        <v>0.12</v>
+      </c>
+      <c r="O16">
+        <v>0.06</v>
+      </c>
+      <c r="P16">
+        <v>0.06</v>
+      </c>
+      <c r="Q16">
+        <v>0.06</v>
+      </c>
+      <c r="R16">
         <v>0.09</v>
       </c>
-      <c r="I16">
-        <v>0.12</v>
-      </c>
-      <c r="J16">
-        <v>0.06</v>
-      </c>
-      <c r="K16">
-        <v>0.06</v>
-      </c>
-      <c r="L16">
-        <v>0.2</v>
-      </c>
-      <c r="M16">
-        <v>0.2</v>
-      </c>
-      <c r="N16">
-        <v>0.06</v>
-      </c>
-      <c r="O16">
-        <v>0.06</v>
-      </c>
-      <c r="P16">
-        <v>0.045</v>
-      </c>
-      <c r="Q16">
-        <v>0.06</v>
-      </c>
-      <c r="R16">
-        <v>0.06</v>
-      </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="T16">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="U16">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="V16">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="W16">
         <v>0.09</v>
       </c>
       <c r="X16">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="Y16">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="Z16">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AA16">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AB16">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AC16">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="AD16">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AE16">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="AF16">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AG16">
         <v>0.06</v>
       </c>
-      <c r="AH16">
-        <v>0.12</v>
-      </c>
-      <c r="AI16">
-        <v>0.2</v>
-      </c>
-      <c r="AJ16">
-        <v>0.15</v>
-      </c>
-      <c r="AK16">
-        <v>0.21</v>
-      </c>
-      <c r="AL16">
-        <v>0.06</v>
-      </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:33">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1801775</v>
+        <v>0.097</v>
       </c>
       <c r="C17">
-        <v>0.1801775</v>
+        <v>0.0873</v>
       </c>
       <c r="D17">
-        <v>0.360355</v>
+        <v>0.1164</v>
       </c>
       <c r="E17">
-        <v>0.72071</v>
+        <v>0.0582</v>
       </c>
       <c r="F17">
-        <v>1.081065</v>
+        <v>0.0582</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>0.194</v>
       </c>
       <c r="H17">
-        <v>0.09</v>
+        <v>0.194</v>
       </c>
       <c r="I17">
-        <v>0.12</v>
+        <v>0.0582</v>
       </c>
       <c r="J17">
-        <v>0.06</v>
+        <v>0.0582</v>
       </c>
       <c r="K17">
-        <v>0.06</v>
+        <v>0.04365</v>
       </c>
       <c r="L17">
-        <v>0.2</v>
+        <v>0.0582</v>
       </c>
       <c r="M17">
-        <v>0.2</v>
+        <v>0.0582</v>
       </c>
       <c r="N17">
-        <v>0.06</v>
+        <v>0.1164</v>
       </c>
       <c r="O17">
-        <v>0.06</v>
+        <v>0.0582</v>
       </c>
       <c r="P17">
-        <v>0.045</v>
+        <v>0.0582</v>
       </c>
       <c r="Q17">
-        <v>0.06</v>
+        <v>0.0582</v>
       </c>
       <c r="R17">
-        <v>0.06</v>
+        <v>0.0873</v>
       </c>
       <c r="S17">
-        <v>0.12</v>
+        <v>0.0873</v>
       </c>
       <c r="T17">
-        <v>0.06</v>
+        <v>0.0873</v>
       </c>
       <c r="U17">
-        <v>0.06</v>
+        <v>0.0873</v>
       </c>
       <c r="V17">
-        <v>0.06</v>
+        <v>0.0873</v>
       </c>
       <c r="W17">
-        <v>0.09</v>
+        <v>0.0873</v>
       </c>
       <c r="X17">
-        <v>0.09</v>
+        <v>0.4074</v>
       </c>
       <c r="Y17">
-        <v>0.09</v>
+        <v>0.4074</v>
       </c>
       <c r="Z17">
-        <v>0.09</v>
+        <v>0.0582</v>
       </c>
       <c r="AA17">
-        <v>0.09</v>
+        <v>0.0582</v>
       </c>
       <c r="AB17">
-        <v>0.09</v>
+        <v>0.0582</v>
       </c>
       <c r="AC17">
-        <v>0.42</v>
+        <v>0.1164</v>
       </c>
       <c r="AD17">
-        <v>0.42</v>
+        <v>0.194</v>
       </c>
       <c r="AE17">
-        <v>0.06</v>
+        <v>0.1455</v>
       </c>
       <c r="AF17">
-        <v>0.06</v>
+        <v>0.2037</v>
       </c>
       <c r="AG17">
-        <v>0.06</v>
-      </c>
-      <c r="AH17">
-        <v>0.12</v>
-      </c>
-      <c r="AI17">
-        <v>0.2</v>
-      </c>
-      <c r="AJ17">
-        <v>0.15</v>
-      </c>
-      <c r="AK17">
-        <v>0.21</v>
-      </c>
-      <c r="AL17">
-        <v>0.06</v>
+        <v>0.0582</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:33">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.17832</v>
+        <v>0.096</v>
       </c>
       <c r="C18">
-        <v>0.17832</v>
+        <v>0.0864</v>
       </c>
       <c r="D18">
-        <v>0.35664</v>
+        <v>0.1152</v>
       </c>
       <c r="E18">
-        <v>0.71328</v>
+        <v>0.0576</v>
       </c>
       <c r="F18">
-        <v>1.06992</v>
+        <v>0.0576</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.192</v>
       </c>
       <c r="H18">
-        <v>0.09</v>
+        <v>0.192</v>
       </c>
       <c r="I18">
-        <v>0.12</v>
+        <v>0.0576</v>
       </c>
       <c r="J18">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="K18">
-        <v>0.06</v>
+        <v>0.0432</v>
       </c>
       <c r="L18">
-        <v>0.2</v>
+        <v>0.0576</v>
       </c>
       <c r="M18">
-        <v>0.2</v>
+        <v>0.0576</v>
       </c>
       <c r="N18">
-        <v>0.06</v>
+        <v>0.1152</v>
       </c>
       <c r="O18">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="P18">
-        <v>0.045</v>
+        <v>0.0576</v>
       </c>
       <c r="Q18">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="R18">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="S18">
-        <v>0.12</v>
+        <v>0.0864</v>
       </c>
       <c r="T18">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="U18">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="V18">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="W18">
-        <v>0.09</v>
+        <v>0.0864</v>
       </c>
       <c r="X18">
-        <v>0.09</v>
+        <v>0.4032</v>
       </c>
       <c r="Y18">
-        <v>0.09</v>
+        <v>0.4032</v>
       </c>
       <c r="Z18">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="AA18">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="AB18">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="AC18">
-        <v>0.42</v>
+        <v>0.1152</v>
       </c>
       <c r="AD18">
-        <v>0.42</v>
+        <v>0.192</v>
       </c>
       <c r="AE18">
-        <v>0.06</v>
+        <v>0.144</v>
       </c>
       <c r="AF18">
-        <v>0.06</v>
+        <v>0.2016</v>
       </c>
       <c r="AG18">
-        <v>0.06</v>
-      </c>
-      <c r="AH18">
-        <v>0.12</v>
-      </c>
-      <c r="AI18">
-        <v>0.2</v>
-      </c>
-      <c r="AJ18">
-        <v>0.15</v>
-      </c>
-      <c r="AK18">
-        <v>0.21</v>
-      </c>
-      <c r="AL18">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:33">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.17832</v>
+        <v>0.096</v>
       </c>
       <c r="C19">
-        <v>0.17832</v>
+        <v>0.0864</v>
       </c>
       <c r="D19">
-        <v>0.35664</v>
+        <v>0.1152</v>
       </c>
       <c r="E19">
-        <v>0.71328</v>
+        <v>0.0576</v>
       </c>
       <c r="F19">
-        <v>1.06992</v>
+        <v>0.0576</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>0.192</v>
       </c>
       <c r="H19">
-        <v>0.09</v>
+        <v>0.192</v>
       </c>
       <c r="I19">
-        <v>0.12</v>
+        <v>0.0576</v>
       </c>
       <c r="J19">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="K19">
-        <v>0.06</v>
+        <v>0.0432</v>
       </c>
       <c r="L19">
-        <v>0.2</v>
+        <v>0.0576</v>
       </c>
       <c r="M19">
-        <v>0.2</v>
+        <v>0.0576</v>
       </c>
       <c r="N19">
-        <v>0.06</v>
+        <v>0.1152</v>
       </c>
       <c r="O19">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="P19">
-        <v>0.045</v>
+        <v>0.0576</v>
       </c>
       <c r="Q19">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="R19">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="S19">
-        <v>0.12</v>
+        <v>0.0864</v>
       </c>
       <c r="T19">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="U19">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="V19">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="W19">
-        <v>0.09</v>
+        <v>0.0864</v>
       </c>
       <c r="X19">
-        <v>0.09</v>
+        <v>0.4032</v>
       </c>
       <c r="Y19">
-        <v>0.09</v>
+        <v>0.4032</v>
       </c>
       <c r="Z19">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="AA19">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="AB19">
-        <v>0.09</v>
+        <v>0.0576</v>
       </c>
       <c r="AC19">
-        <v>0.42</v>
+        <v>0.1152</v>
       </c>
       <c r="AD19">
-        <v>0.42</v>
+        <v>0.192</v>
       </c>
       <c r="AE19">
-        <v>0.06</v>
+        <v>0.144</v>
       </c>
       <c r="AF19">
-        <v>0.06</v>
+        <v>0.2016</v>
       </c>
       <c r="AG19">
-        <v>0.06</v>
-      </c>
-      <c r="AH19">
-        <v>0.12</v>
-      </c>
-      <c r="AI19">
-        <v>0.2</v>
-      </c>
-      <c r="AJ19">
-        <v>0.15</v>
-      </c>
-      <c r="AK19">
-        <v>0.21</v>
-      </c>
-      <c r="AL19">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:33">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1727475</v>
+        <v>0.093</v>
       </c>
       <c r="C20">
-        <v>0.1727475</v>
+        <v>0.0837</v>
       </c>
       <c r="D20">
-        <v>0.345495</v>
+        <v>0.1116</v>
       </c>
       <c r="E20">
-        <v>0.69099</v>
+        <v>0.0558</v>
       </c>
       <c r="F20">
-        <v>1.036485</v>
+        <v>0.0558</v>
       </c>
       <c r="G20">
-        <v>0.1</v>
+        <v>0.186</v>
       </c>
       <c r="H20">
-        <v>0.09</v>
+        <v>0.186</v>
       </c>
       <c r="I20">
-        <v>0.12</v>
+        <v>0.0558</v>
       </c>
       <c r="J20">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
       <c r="K20">
-        <v>0.06</v>
+        <v>0.04185</v>
       </c>
       <c r="L20">
-        <v>0.2</v>
+        <v>0.0558</v>
       </c>
       <c r="M20">
-        <v>0.2</v>
+        <v>0.0558</v>
       </c>
       <c r="N20">
-        <v>0.06</v>
+        <v>0.1116</v>
       </c>
       <c r="O20">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
       <c r="P20">
-        <v>0.045</v>
+        <v>0.0558</v>
       </c>
       <c r="Q20">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
       <c r="R20">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="S20">
-        <v>0.12</v>
+        <v>0.0837</v>
       </c>
       <c r="T20">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="U20">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="V20">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="W20">
-        <v>0.09</v>
+        <v>0.0837</v>
       </c>
       <c r="X20">
-        <v>0.09</v>
+        <v>0.3906</v>
       </c>
       <c r="Y20">
-        <v>0.09</v>
+        <v>0.3906</v>
       </c>
       <c r="Z20">
-        <v>0.09</v>
+        <v>0.0558</v>
       </c>
       <c r="AA20">
-        <v>0.09</v>
+        <v>0.0558</v>
       </c>
       <c r="AB20">
-        <v>0.09</v>
+        <v>0.0558</v>
       </c>
       <c r="AC20">
-        <v>0.42</v>
+        <v>0.1116</v>
       </c>
       <c r="AD20">
-        <v>0.42</v>
+        <v>0.186</v>
       </c>
       <c r="AE20">
-        <v>0.06</v>
+        <v>0.1395</v>
       </c>
       <c r="AF20">
-        <v>0.06</v>
+        <v>0.1953</v>
       </c>
       <c r="AG20">
-        <v>0.06</v>
-      </c>
-      <c r="AH20">
-        <v>0.12</v>
-      </c>
-      <c r="AI20">
-        <v>0.2</v>
-      </c>
-      <c r="AJ20">
-        <v>0.15</v>
-      </c>
-      <c r="AK20">
-        <v>0.21</v>
-      </c>
-      <c r="AL20">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:33">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.17089</v>
+        <v>0.092</v>
       </c>
       <c r="C21">
-        <v>0.17089</v>
+        <v>0.0828</v>
       </c>
       <c r="D21">
-        <v>0.34178</v>
+        <v>0.1104</v>
       </c>
       <c r="E21">
-        <v>0.6835599999999999</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="F21">
-        <v>1.02534</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="G21">
-        <v>0.1</v>
+        <v>0.184</v>
       </c>
       <c r="H21">
-        <v>0.09</v>
+        <v>0.184</v>
       </c>
       <c r="I21">
-        <v>0.12</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="J21">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="K21">
-        <v>0.06</v>
+        <v>0.0414</v>
       </c>
       <c r="L21">
-        <v>0.2</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="M21">
-        <v>0.2</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="N21">
-        <v>0.06</v>
+        <v>0.1104</v>
       </c>
       <c r="O21">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="P21">
-        <v>0.045</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="R21">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="S21">
-        <v>0.12</v>
+        <v>0.0828</v>
       </c>
       <c r="T21">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="U21">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="V21">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="W21">
-        <v>0.09</v>
+        <v>0.0828</v>
       </c>
       <c r="X21">
-        <v>0.09</v>
+        <v>0.3864</v>
       </c>
       <c r="Y21">
-        <v>0.09</v>
+        <v>0.3864</v>
       </c>
       <c r="Z21">
-        <v>0.09</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.09</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.09</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="AC21">
-        <v>0.42</v>
+        <v>0.1104</v>
       </c>
       <c r="AD21">
-        <v>0.42</v>
+        <v>0.184</v>
       </c>
       <c r="AE21">
-        <v>0.06</v>
+        <v>0.138</v>
       </c>
       <c r="AF21">
-        <v>0.06</v>
+        <v>0.1932</v>
       </c>
       <c r="AG21">
-        <v>0.06</v>
-      </c>
-      <c r="AH21">
-        <v>0.12</v>
-      </c>
-      <c r="AI21">
-        <v>0.2</v>
-      </c>
-      <c r="AJ21">
-        <v>0.15</v>
-      </c>
-      <c r="AK21">
-        <v>0.21</v>
-      </c>
-      <c r="AL21">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:33">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.17089</v>
+        <v>0.092</v>
       </c>
       <c r="C22">
-        <v>0.17089</v>
+        <v>0.0828</v>
       </c>
       <c r="D22">
-        <v>0.34178</v>
+        <v>0.1104</v>
       </c>
       <c r="E22">
-        <v>0.6835599999999999</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="F22">
-        <v>1.02534</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="G22">
-        <v>0.1</v>
+        <v>0.184</v>
       </c>
       <c r="H22">
-        <v>0.09</v>
+        <v>0.184</v>
       </c>
       <c r="I22">
-        <v>0.12</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="J22">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="K22">
-        <v>0.06</v>
+        <v>0.0414</v>
       </c>
       <c r="L22">
-        <v>0.2</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="M22">
-        <v>0.2</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="N22">
-        <v>0.06</v>
+        <v>0.1104</v>
       </c>
       <c r="O22">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="P22">
-        <v>0.045</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="Q22">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="R22">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="S22">
-        <v>0.12</v>
+        <v>0.0828</v>
       </c>
       <c r="T22">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="U22">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="V22">
-        <v>0.06</v>
+        <v>0.0828</v>
       </c>
       <c r="W22">
-        <v>0.09</v>
+        <v>0.0828</v>
       </c>
       <c r="X22">
-        <v>0.09</v>
+        <v>0.3864</v>
       </c>
       <c r="Y22">
-        <v>0.09</v>
+        <v>0.3864</v>
       </c>
       <c r="Z22">
-        <v>0.09</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.09</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="AB22">
-        <v>0.09</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.42</v>
+        <v>0.1104</v>
       </c>
       <c r="AD22">
-        <v>0.42</v>
+        <v>0.184</v>
       </c>
       <c r="AE22">
-        <v>0.06</v>
+        <v>0.138</v>
       </c>
       <c r="AF22">
-        <v>0.06</v>
+        <v>0.1932</v>
       </c>
       <c r="AG22">
-        <v>0.06</v>
-      </c>
-      <c r="AH22">
-        <v>0.12</v>
-      </c>
-      <c r="AI22">
-        <v>0.2</v>
-      </c>
-      <c r="AJ22">
-        <v>0.15</v>
-      </c>
-      <c r="AK22">
-        <v>0.21</v>
-      </c>
-      <c r="AL22">
-        <v>0.06</v>
+        <v>0.05520000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:33">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1727475</v>
+        <v>0.093</v>
       </c>
       <c r="C23">
-        <v>0.1727475</v>
+        <v>0.0837</v>
       </c>
       <c r="D23">
-        <v>0.345495</v>
+        <v>0.1116</v>
       </c>
       <c r="E23">
-        <v>0.69099</v>
+        <v>0.0558</v>
       </c>
       <c r="F23">
-        <v>1.036485</v>
+        <v>0.0558</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>0.186</v>
       </c>
       <c r="H23">
-        <v>0.09</v>
+        <v>0.186</v>
       </c>
       <c r="I23">
-        <v>0.12</v>
+        <v>0.0558</v>
       </c>
       <c r="J23">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
       <c r="K23">
-        <v>0.06</v>
+        <v>0.04185</v>
       </c>
       <c r="L23">
-        <v>0.2</v>
+        <v>0.0558</v>
       </c>
       <c r="M23">
-        <v>0.2</v>
+        <v>0.0558</v>
       </c>
       <c r="N23">
-        <v>0.06</v>
+        <v>0.1116</v>
       </c>
       <c r="O23">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
       <c r="P23">
-        <v>0.045</v>
+        <v>0.0558</v>
       </c>
       <c r="Q23">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
       <c r="R23">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="S23">
-        <v>0.12</v>
+        <v>0.0837</v>
       </c>
       <c r="T23">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="U23">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="V23">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="W23">
-        <v>0.09</v>
+        <v>0.0837</v>
       </c>
       <c r="X23">
-        <v>0.09</v>
+        <v>0.3906</v>
       </c>
       <c r="Y23">
-        <v>0.09</v>
+        <v>0.3906</v>
       </c>
       <c r="Z23">
-        <v>0.09</v>
+        <v>0.0558</v>
       </c>
       <c r="AA23">
-        <v>0.09</v>
+        <v>0.0558</v>
       </c>
       <c r="AB23">
-        <v>0.09</v>
+        <v>0.0558</v>
       </c>
       <c r="AC23">
-        <v>0.42</v>
+        <v>0.1116</v>
       </c>
       <c r="AD23">
-        <v>0.42</v>
+        <v>0.186</v>
       </c>
       <c r="AE23">
-        <v>0.06</v>
+        <v>0.1395</v>
       </c>
       <c r="AF23">
-        <v>0.06</v>
+        <v>0.1953</v>
       </c>
       <c r="AG23">
-        <v>0.06</v>
-      </c>
-      <c r="AH23">
-        <v>0.12</v>
-      </c>
-      <c r="AI23">
-        <v>0.2</v>
-      </c>
-      <c r="AJ23">
-        <v>0.15</v>
-      </c>
-      <c r="AK23">
-        <v>0.21</v>
-      </c>
-      <c r="AL23">
-        <v>0.06</v>
+        <v>0.0558</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:33">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1616025</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C24">
-        <v>0.1616025</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D24">
-        <v>0.323205</v>
+        <v>0.1044</v>
       </c>
       <c r="E24">
-        <v>0.64641</v>
+        <v>0.0522</v>
       </c>
       <c r="F24">
-        <v>0.969615</v>
+        <v>0.0522</v>
       </c>
       <c r="G24">
-        <v>0.1</v>
+        <v>0.174</v>
       </c>
       <c r="H24">
-        <v>0.09</v>
+        <v>0.174</v>
       </c>
       <c r="I24">
-        <v>0.12</v>
+        <v>0.0522</v>
       </c>
       <c r="J24">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="K24">
-        <v>0.06</v>
+        <v>0.03915</v>
       </c>
       <c r="L24">
-        <v>0.2</v>
+        <v>0.0522</v>
       </c>
       <c r="M24">
-        <v>0.2</v>
+        <v>0.0522</v>
       </c>
       <c r="N24">
-        <v>0.06</v>
+        <v>0.1044</v>
       </c>
       <c r="O24">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="P24">
-        <v>0.045</v>
+        <v>0.0522</v>
       </c>
       <c r="Q24">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
       <c r="R24">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="S24">
-        <v>0.12</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="T24">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="U24">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="V24">
-        <v>0.06</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="W24">
-        <v>0.09</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="X24">
-        <v>0.09</v>
+        <v>0.3654</v>
       </c>
       <c r="Y24">
-        <v>0.09</v>
+        <v>0.3654</v>
       </c>
       <c r="Z24">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="AA24">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="AB24">
-        <v>0.09</v>
+        <v>0.0522</v>
       </c>
       <c r="AC24">
-        <v>0.42</v>
+        <v>0.1044</v>
       </c>
       <c r="AD24">
-        <v>0.42</v>
+        <v>0.174</v>
       </c>
       <c r="AE24">
-        <v>0.06</v>
+        <v>0.1305</v>
       </c>
       <c r="AF24">
-        <v>0.06</v>
+        <v>0.1827</v>
       </c>
       <c r="AG24">
-        <v>0.06</v>
-      </c>
-      <c r="AH24">
-        <v>0.12</v>
-      </c>
-      <c r="AI24">
-        <v>0.2</v>
-      </c>
-      <c r="AJ24">
-        <v>0.15</v>
-      </c>
-      <c r="AK24">
-        <v>0.21</v>
-      </c>
-      <c r="AL24">
-        <v>0.06</v>
+        <v>0.0522</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:33">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.13374</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C25">
-        <v>0.13374</v>
+        <v>0.0648</v>
       </c>
       <c r="D25">
-        <v>0.26748</v>
+        <v>0.0864</v>
       </c>
       <c r="E25">
-        <v>0.53496</v>
+        <v>0.0432</v>
       </c>
       <c r="F25">
-        <v>0.80244</v>
+        <v>0.0432</v>
       </c>
       <c r="G25">
-        <v>0.1</v>
+        <v>0.144</v>
       </c>
       <c r="H25">
-        <v>0.09</v>
+        <v>0.144</v>
       </c>
       <c r="I25">
-        <v>0.12</v>
+        <v>0.0432</v>
       </c>
       <c r="J25">
-        <v>0.06</v>
+        <v>0.0432</v>
       </c>
       <c r="K25">
-        <v>0.06</v>
+        <v>0.0324</v>
       </c>
       <c r="L25">
-        <v>0.2</v>
+        <v>0.0432</v>
       </c>
       <c r="M25">
-        <v>0.2</v>
+        <v>0.0432</v>
       </c>
       <c r="N25">
-        <v>0.06</v>
+        <v>0.0864</v>
       </c>
       <c r="O25">
-        <v>0.06</v>
+        <v>0.0432</v>
       </c>
       <c r="P25">
-        <v>0.045</v>
+        <v>0.0432</v>
       </c>
       <c r="Q25">
-        <v>0.06</v>
+        <v>0.0432</v>
       </c>
       <c r="R25">
-        <v>0.06</v>
+        <v>0.0648</v>
       </c>
       <c r="S25">
-        <v>0.12</v>
+        <v>0.0648</v>
       </c>
       <c r="T25">
-        <v>0.06</v>
+        <v>0.0648</v>
       </c>
       <c r="U25">
-        <v>0.06</v>
+        <v>0.0648</v>
       </c>
       <c r="V25">
-        <v>0.06</v>
+        <v>0.0648</v>
       </c>
       <c r="W25">
-        <v>0.09</v>
+        <v>0.0648</v>
       </c>
       <c r="X25">
-        <v>0.09</v>
+        <v>0.3024</v>
       </c>
       <c r="Y25">
-        <v>0.09</v>
+        <v>0.3024</v>
       </c>
       <c r="Z25">
-        <v>0.09</v>
+        <v>0.0432</v>
       </c>
       <c r="AA25">
-        <v>0.09</v>
+        <v>0.0432</v>
       </c>
       <c r="AB25">
-        <v>0.09</v>
+        <v>0.0432</v>
       </c>
       <c r="AC25">
-        <v>0.42</v>
+        <v>0.0864</v>
       </c>
       <c r="AD25">
-        <v>0.42</v>
+        <v>0.144</v>
       </c>
       <c r="AE25">
-        <v>0.06</v>
+        <v>0.108</v>
       </c>
       <c r="AF25">
-        <v>0.06</v>
+        <v>0.1512</v>
       </c>
       <c r="AG25">
-        <v>0.06</v>
-      </c>
-      <c r="AH25">
-        <v>0.12</v>
-      </c>
-      <c r="AI25">
-        <v>0.2</v>
-      </c>
-      <c r="AJ25">
-        <v>0.15</v>
-      </c>
-      <c r="AK25">
-        <v>0.21</v>
-      </c>
-      <c r="AL25">
-        <v>0.06</v>
+        <v>0.0432</v>
       </c>
     </row>
   </sheetData>
